--- a/documentatie/burndown_chart.xlsx
+++ b/documentatie/burndown_chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project 6\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699C3C45-BC0C-483A-A99C-3BC812F262BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0890C677-2160-455A-B580-5AF8ACF3372C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Initial Estimate</t>
   </si>
@@ -451,13 +451,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,13 +549,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -682,7 +682,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -789,10 +789,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1967,26 +1967,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23A665-88C7-4222-B918-AB1BED6AEF55}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2054,10 +2054,10 @@
       </c>
       <c r="K2" s="11">
         <f>B2-(SUM(C2:J2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -2217,17 +2217,17 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>22</v>
+      <c r="H9" s="6">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
@@ -2244,20 +2244,20 @@
       <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>22</v>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>8</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>1</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" ref="D11:J11" si="1">C11-D10</f>
+        <f t="shared" ref="D11" si="1">C11-D10</f>
         <v>-8</v>
       </c>
       <c r="E11" s="6">
@@ -2278,20 +2278,20 @@
       <c r="F11" s="6">
         <v>8</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:J12" si="2">C12-D9</f>
+        <f t="shared" ref="D12:F12" si="2">C12-D9</f>
         <v>-8</v>
       </c>
       <c r="E12" s="1">
@@ -2315,14 +2315,14 @@
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
